--- a/Experiments/Part5-GameTheory/Leech-Games/PeerSim-leech-payoff.xlsx
+++ b/Experiments/Part5-GameTheory/Leech-Games/PeerSim-leech-payoff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="0" windowWidth="30080" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="2400" yWindow="2400" windowWidth="23200" windowHeight="13660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Setting1-Result100.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Setting 2</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Taste 0-leech</t>
+  </si>
+  <si>
+    <t>Major Minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taste 0 </t>
+  </si>
+  <si>
+    <t>MajorMinor-payoff</t>
+  </si>
+  <si>
+    <t>Taste 0</t>
   </si>
 </sst>
 </file>
@@ -119,8 +131,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -131,11 +147,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -709,11 +729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132708136"/>
-        <c:axId val="2136456936"/>
+        <c:axId val="2145947320"/>
+        <c:axId val="2133241704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132708136"/>
+        <c:axId val="2145947320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,7 +766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136456936"/>
+        <c:crossAx val="2133241704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -754,7 +774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136456936"/>
+        <c:axId val="2133241704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132708136"/>
+        <c:crossAx val="2145947320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1369,11 +1389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136548904"/>
-        <c:axId val="2136554072"/>
+        <c:axId val="2088920792"/>
+        <c:axId val="2133934936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136548904"/>
+        <c:axId val="2088920792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136554072"/>
+        <c:crossAx val="2133934936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136554072"/>
+        <c:axId val="2133934936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136548904"/>
+        <c:crossAx val="2088920792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1465,16 +1485,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1495,16 +1515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1848,15 +1868,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="I52" workbookViewId="0">
+      <selection activeCell="Q82" sqref="P1:Q82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1869,8 +1889,14 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1901,8 +1927,20 @@
       <c r="N2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>2.4523809523809481</v>
       </c>
@@ -1937,8 +1975,22 @@
         <f>E3-G3</f>
         <v>-9.1111111444448944E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3" s="1">
+        <v>2.4428571429999999</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2.622222222</v>
+      </c>
+      <c r="S3">
+        <f>P3-G3</f>
+        <v>-0.20380952399999996</v>
+      </c>
+      <c r="T3">
+        <f>Q3-G3</f>
+        <v>-2.444444499999987E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>7.9476190476190425</v>
       </c>
@@ -1973,8 +2025,22 @@
         <f t="shared" ref="N4:N67" si="3">E4-G4</f>
         <v>2.0283333333333289</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4" s="1">
+        <v>8.19047619</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>6.766666667</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S67" si="4">P4-G4</f>
+        <v>3.1854761900000002</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T67" si="5">Q4-G4</f>
+        <v>1.7616666670000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>15.080952380952329</v>
       </c>
@@ -2009,8 +2075,22 @@
         <f t="shared" si="3"/>
         <v>5.4027777777777493</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5" s="1">
+        <v>15.46666667</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>12.66666667</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>7.8916666700000002</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>5.0916666699999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>22.433333333333291</v>
       </c>
@@ -2045,8 +2125,22 @@
         <f t="shared" si="3"/>
         <v>9.1999999999999531</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6" s="1">
+        <v>22.914285710000001</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>19.533333330000001</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>12.614285710000001</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>9.2333333300000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>29.914285714285672</v>
       </c>
@@ -2081,8 +2175,22 @@
         <f t="shared" si="3"/>
         <v>14.015555555555498</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="P7" s="1">
+        <v>30.414285710000001</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>26.788888889999999</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>17.874285710000002</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>14.24888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>37.399999999999963</v>
       </c>
@@ -2117,8 +2225,22 @@
         <f t="shared" si="3"/>
         <v>19.027777781111062</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="P8" s="1">
+        <v>37.909523810000003</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>34.144444440000001</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>22.926190480000002</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>19.16111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>44.899999999999963</v>
       </c>
@@ -2153,8 +2275,22 @@
         <f t="shared" si="3"/>
         <v>24.01666666999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="P9" s="1">
+        <v>45.409523810000003</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>41.433333330000004</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>27.926190480000002</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>23.950000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>52.399999999999963</v>
       </c>
@@ -2189,8 +2325,22 @@
         <f t="shared" si="3"/>
         <v>29.246111114444393</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10" s="1">
+        <v>52.909523810000003</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>48.777777780000001</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>33.211190479999999</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>29.07944445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>59.899999999999963</v>
       </c>
@@ -2225,8 +2375,22 @@
         <f t="shared" si="3"/>
         <v>34.029999996666618</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="P11" s="1">
+        <v>60.409523810000003</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>56.244444440000002</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>38.072857140000004</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>33.907777770000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>67.399999999999963</v>
       </c>
@@ -2261,8 +2425,22 @@
         <f t="shared" si="3"/>
         <v>38.894999996666598</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12" s="1">
+        <v>67.909523809999996</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>63.744444440000002</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>42.937857139999991</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>38.772777770000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>74.899999999999963</v>
       </c>
@@ -2297,8 +2475,22 @@
         <f t="shared" si="3"/>
         <v>43.94166666666662</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="P13" s="1">
+        <v>75.409523809999996</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>71.244444439999995</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>47.984523809999999</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>43.819444439999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>82.399999999999963</v>
       </c>
@@ -2333,8 +2525,22 @@
         <f t="shared" si="3"/>
         <v>49.201666666666618</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14" s="1">
+        <v>82.909523809999996</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>78.744444439999995</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>53.244523809999997</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>49.079444439999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>89.899999999999963</v>
       </c>
@@ -2369,8 +2575,22 @@
         <f t="shared" si="3"/>
         <v>54.014999996666617</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15" s="1">
+        <v>90.409523809999996</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>86.244444439999995</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>58.057857139999996</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>53.892777769999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>97.399999999999963</v>
       </c>
@@ -2405,8 +2625,22 @@
         <f t="shared" si="3"/>
         <v>59.238333336666621</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="P16" s="1">
+        <v>97.909523809999996</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>93.744444439999995</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>63.281190479999999</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>59.116111109999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>104.89999999999949</v>
       </c>
@@ -2441,8 +2675,22 @@
         <f t="shared" si="3"/>
         <v>64.218333336666191</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17" s="1">
+        <v>105.4095238</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>101.18888889999999</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>68.261190470000003</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>64.040555569999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>112.39999999999949</v>
       </c>
@@ -2477,8 +2725,22 @@
         <f t="shared" si="3"/>
         <v>69.161666666666207</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18" s="1">
+        <v>112.9095238</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>108.4555556</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>73.404523799999993</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>68.950555600000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>119.89999999999949</v>
       </c>
@@ -2513,8 +2775,22 @@
         <f t="shared" si="3"/>
         <v>73.9505555522218</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="P19" s="1">
+        <v>120.4095238</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>115.5666667</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>78.437857129999998</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>73.595000029999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>127.39999999999949</v>
       </c>
@@ -2549,8 +2825,22 @@
         <f t="shared" si="3"/>
         <v>78.41833333333301</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20" s="1">
+        <v>127.9095238</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>122.4333333</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>83.494523799999996</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>78.018333299999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>134.89999999999949</v>
       </c>
@@ -2585,8 +2875,22 @@
         <f t="shared" si="3"/>
         <v>82.448888892221674</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="P21" s="1">
+        <v>135.40952379999999</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>129.02222219999999</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>88.336190469999991</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>81.94888886999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>142.3809523809519</v>
       </c>
@@ -2621,8 +2925,22 @@
         <f t="shared" si="3"/>
         <v>86.338888885555207</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="P22" s="1">
+        <v>142.8952381</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>135.71111110000001</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>93.178571430000005</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="5"/>
+        <v>85.994444430000016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>149.77619047619001</v>
       </c>
@@ -2657,8 +2975,22 @@
         <f t="shared" si="3"/>
         <v>90.717777774443903</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="P23" s="1">
+        <v>150.27619050000001</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>142.24444439999999</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>98.249523830000015</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>90.217777729999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>156.90476190476141</v>
       </c>
@@ -2693,8 +3025,22 @@
         <f t="shared" si="3"/>
         <v>94.488333336666273</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="P24" s="1">
+        <v>157.6285714</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>148.98888890000001</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>102.75023806999999</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="5"/>
+        <v>94.110555570000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>163.90952380952339</v>
       </c>
@@ -2729,8 +3075,22 @@
         <f t="shared" si="3"/>
         <v>98.773888892221919</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="P25" s="1">
+        <v>164.9190476</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>155.34444439999999</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>107.87071427000001</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="5"/>
+        <v>98.296111069999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>170.88095238095181</v>
       </c>
@@ -2765,8 +3125,22 @@
         <f t="shared" si="3"/>
         <v>102.7249999966662</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="P26" s="1">
+        <v>172.00476190000001</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>161.94444440000001</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>112.46309523000001</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>102.40277773000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>177.85238095238049</v>
       </c>
@@ -2801,8 +3175,22 @@
         <f t="shared" si="3"/>
         <v>106.23666666999959</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="P27" s="1">
+        <v>178.9</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>168.3</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>116.43666667000001</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="5"/>
+        <v>105.83666667000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>184.75238095238058</v>
       </c>
@@ -2837,8 +3225,22 @@
         <f t="shared" si="3"/>
         <v>110.23833333333282</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="P28" s="1">
+        <v>185.7904762</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>174.62222220000001</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>120.8954762</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>109.72722220000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>191.6047619047614</v>
       </c>
@@ -2873,8 +3275,22 @@
         <f t="shared" si="3"/>
         <v>114.03055555555508</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="P29" s="1">
+        <v>192.72380949999999</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>180.7666667</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>125.19880949999998</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="5"/>
+        <v>113.2416667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>198.38571428571379</v>
       </c>
@@ -2909,8 +3325,22 @@
         <f t="shared" si="3"/>
         <v>118.17166666666621</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="P30" s="1">
+        <v>199.46666669999999</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>187.01111109999999</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>129.57166669999998</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="5"/>
+        <v>117.1161111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>205.05238095238042</v>
       </c>
@@ -2945,8 +3375,22 @@
         <f t="shared" si="3"/>
         <v>121.8033333366662</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="P31" s="1">
+        <v>206.0809524</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>193.5444444</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>133.61761906999999</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="5"/>
+        <v>121.08111107000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>211.7666666666662</v>
       </c>
@@ -2981,8 +3425,22 @@
         <f t="shared" si="3"/>
         <v>124.87333333666628</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="P32" s="1">
+        <v>212.80952379999999</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>199.7777778</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>137.81619046999998</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="5"/>
+        <v>124.78444447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>218.49523809523754</v>
       </c>
@@ -3017,8 +3475,22 @@
         <f t="shared" si="3"/>
         <v>128.21222221888851</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="P33" s="1">
+        <v>219.63809520000001</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>205.8555556</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>141.96142853000001</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="5"/>
+        <v>128.17888893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>224.9238095238091</v>
       </c>
@@ -3053,8 +3525,22 @@
         <f t="shared" si="3"/>
         <v>131.46833333666632</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="P34" s="1">
+        <v>226.10952380000001</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>211.56666670000001</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>146.21119047000002</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="5"/>
+        <v>131.66833337000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>231.42380952380898</v>
       </c>
@@ -3089,8 +3575,22 @@
         <f t="shared" si="3"/>
         <v>134.84277778111067</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="P35" s="1">
+        <v>232.54285709999999</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>217.3555556</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="4"/>
+        <v>150.07452376999998</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="5"/>
+        <v>134.88722227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>237.67142857142818</v>
       </c>
@@ -3125,8 +3625,22 @@
         <f t="shared" si="3"/>
         <v>137.99777777777743</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="P36" s="1">
+        <v>239.09523809999999</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>223.3555556</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="4"/>
+        <v>154.21523809999999</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="5"/>
+        <v>138.47555560000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>243.93333333333294</v>
       </c>
@@ -3161,8 +3675,22 @@
         <f t="shared" si="3"/>
         <v>140.56888888888869</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="P37" s="1">
+        <v>245.46190480000001</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>229.2777778</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="4"/>
+        <v>157.94190480000003</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="5"/>
+        <v>141.75777779999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>250.2047619047616</v>
       </c>
@@ -3197,8 +3725,22 @@
         <f t="shared" si="3"/>
         <v>143.33333333666633</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="P38" s="1">
+        <v>251.59523809999999</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>233.9555556</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="4"/>
+        <v>161.36190477</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="5"/>
+        <v>143.72222227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>256.03333333333291</v>
       </c>
@@ -3233,8 +3775,22 @@
         <f t="shared" si="3"/>
         <v>146.11166666333298</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="P39" s="1">
+        <v>257.69047619999998</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>239.24444439999999</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="4"/>
+        <v>164.66880952999998</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="5"/>
+        <v>146.22277772999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>261.29523809523755</v>
       </c>
@@ -3269,8 +3825,22 @@
         <f t="shared" si="3"/>
         <v>148.87888888555511</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="P40" s="1">
+        <v>263.2857143</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>244.6444444</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="4"/>
+        <v>167.80904763000001</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="5"/>
+        <v>149.16777773000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>266.94285714285672</v>
       </c>
@@ -3305,8 +3875,22 @@
         <f t="shared" si="3"/>
         <v>151.43555555888841</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="P41" s="1">
+        <v>268.20476189999999</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>248.98888890000001</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>170.45142856999999</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="5"/>
+        <v>151.23555557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>271.4904761904757</v>
       </c>
@@ -3341,8 +3925,22 @@
         <f t="shared" si="3"/>
         <v>153.6305555888884</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="P42" s="1">
+        <v>273.4238095</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>253.7222222</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="4"/>
+        <v>173.1654762</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="5"/>
+        <v>153.4638889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>276.2571428571423</v>
       </c>
@@ -3377,8 +3975,22 @@
         <f t="shared" si="3"/>
         <v>155.0866666999994</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="P43" s="1">
+        <v>278.49047619999999</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="4"/>
+        <v>175.7771429</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="5"/>
+        <v>155.68666669999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>279.92380952380898</v>
       </c>
@@ -3413,8 +4025,22 @@
         <f t="shared" si="3"/>
         <v>155.15555555555494</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="P44" s="1">
+        <v>282.30952380000002</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>262.11111110000002</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="4"/>
+        <v>177.00952380000001</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="5"/>
+        <v>156.81111110000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>283.25238095238041</v>
       </c>
@@ -3449,8 +4075,22 @@
         <f t="shared" si="3"/>
         <v>156.22999999999956</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="P45" s="1">
+        <v>285.67619050000002</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>266.38888889999998</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="4"/>
+        <v>178.0061905</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="5"/>
+        <v>158.71888889999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>285.36666666666622</v>
       </c>
@@ -3485,8 +4125,22 @@
         <f t="shared" si="3"/>
         <v>156.36944444444413</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="P46" s="1">
+        <v>286.39523809999997</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>269.3666667</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="4"/>
+        <v>176.02023809999997</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="5"/>
+        <v>158.9916667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>285.70952380952349</v>
       </c>
@@ -3521,8 +4175,22 @@
         <f t="shared" si="3"/>
         <v>155.60611111111058</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="P47" s="1">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>271.18888889999999</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="4"/>
+        <v>172.79500000000002</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="5"/>
+        <v>158.38388889999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>284.3333333333332</v>
       </c>
@@ -3557,8 +4225,22 @@
         <f t="shared" si="3"/>
         <v>155.43166666666627</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="P48" s="1">
+        <v>283.92857140000001</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>273.46666670000002</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="4"/>
+        <v>168.59357140000003</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="5"/>
+        <v>158.13166670000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>282.4190476190476</v>
       </c>
@@ -3593,8 +4275,22 @@
         <f t="shared" si="3"/>
         <v>154.96999996666631</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="P49" s="1">
+        <v>281.79523810000001</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>274.3222222</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="4"/>
+        <v>163.79857140000001</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="5"/>
+        <v>156.32555550000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>280</v>
       </c>
@@ -3629,8 +4325,22 @@
         <f t="shared" si="3"/>
         <v>152.86166663333279</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="P50" s="1">
+        <v>279.95714290000001</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>274.6333333</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="4"/>
+        <v>159.48547619999999</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="5"/>
+        <v>154.16166659999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>277.5</v>
       </c>
@@ -3665,8 +4375,22 @@
         <f t="shared" si="3"/>
         <v>150.83444441111089</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="P51" s="1">
+        <v>277.5</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>274.41111110000003</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="4"/>
+        <v>154.52333329999999</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="5"/>
+        <v>151.43444440000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>275</v>
       </c>
@@ -3701,8 +4425,22 @@
         <f t="shared" si="3"/>
         <v>147.32500003333311</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="P52" s="1">
+        <v>275</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>273</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="4"/>
+        <v>149.3916667</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="5"/>
+        <v>147.3916667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>272.5</v>
       </c>
@@ -3737,8 +4475,22 @@
         <f t="shared" si="3"/>
         <v>143.24722225555539</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="P53" s="1">
+        <v>272.5</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>271.43333330000002</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="4"/>
+        <v>144.09166669999999</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="5"/>
+        <v>143.02500000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>270</v>
       </c>
@@ -3773,8 +4525,22 @@
         <f t="shared" si="3"/>
         <v>139.31666670000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="P54" s="1">
+        <v>270</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>269.44444440000001</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="4"/>
+        <v>139.31666670000001</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="5"/>
+        <v>138.76111110000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>267.5</v>
       </c>
@@ -3809,8 +4575,22 @@
         <f t="shared" si="3"/>
         <v>134.1983333</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="P55" s="1">
+        <v>267.5</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>267.21111109999998</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="4"/>
+        <v>134.1983333</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="5"/>
+        <v>133.90944439999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>265</v>
       </c>
@@ -3845,8 +4625,22 @@
         <f t="shared" si="3"/>
         <v>129.27666669999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="P56" s="1">
+        <v>265</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>264.8</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="4"/>
+        <v>129.27666669999999</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="5"/>
+        <v>129.0766667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>262.5</v>
       </c>
@@ -3881,8 +4675,22 @@
         <f t="shared" si="3"/>
         <v>124.49666669999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="P57" s="1">
+        <v>262.5</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>262.3</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="4"/>
+        <v>124.49666669999999</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="5"/>
+        <v>124.2966667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>260</v>
       </c>
@@ -3917,8 +4725,22 @@
         <f t="shared" si="3"/>
         <v>119.66333330000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="P58" s="1">
+        <v>260</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>259.8</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="4"/>
+        <v>119.66333330000001</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="5"/>
+        <v>119.46333330000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>257.5</v>
       </c>
@@ -3953,8 +4775,22 @@
         <f t="shared" si="3"/>
         <v>114.5133333</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="P59" s="1">
+        <v>257.5</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>257.3</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="4"/>
+        <v>114.5133333</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="5"/>
+        <v>114.31333330000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>255</v>
       </c>
@@ -3989,8 +4825,22 @@
         <f t="shared" si="3"/>
         <v>109.71833330000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="P60" s="1">
+        <v>255</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>254.8</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="4"/>
+        <v>109.71833330000001</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="5"/>
+        <v>109.51833330000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>252.5</v>
       </c>
@@ -4025,8 +4875,22 @@
         <f t="shared" si="3"/>
         <v>104.61000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="P61" s="1">
+        <v>252.5</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>252.3</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="4"/>
+        <v>104.61000000000001</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="5"/>
+        <v>104.41000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>250</v>
       </c>
@@ -4061,8 +4925,22 @@
         <f t="shared" si="3"/>
         <v>99.406666699999988</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="P62" s="1">
+        <v>250</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>249.8555556</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="4"/>
+        <v>99.406666699999988</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="5"/>
+        <v>99.262222299999991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>247.5</v>
       </c>
@@ -4097,8 +4975,22 @@
         <f t="shared" si="3"/>
         <v>94.428333299999991</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="P63" s="1">
+        <v>247.5</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>247.5</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="4"/>
+        <v>94.428333299999991</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="5"/>
+        <v>94.428333299999991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>245</v>
       </c>
@@ -4133,8 +5025,22 @@
         <f t="shared" si="3"/>
         <v>89.388333299999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="P64" s="1">
+        <v>245</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>245</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="4"/>
+        <v>89.388333299999999</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="5"/>
+        <v>89.388333299999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>242.5</v>
       </c>
@@ -4169,8 +5075,22 @@
         <f t="shared" si="3"/>
         <v>84.60166670000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="P65" s="1">
+        <v>242.5</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>242.5</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="4"/>
+        <v>84.60166670000001</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="5"/>
+        <v>84.60166670000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>240</v>
       </c>
@@ -4205,8 +5125,22 @@
         <f t="shared" si="3"/>
         <v>79.818333300000006</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="P66" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>240</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="4"/>
+        <v>79.818333300000006</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="5"/>
+        <v>79.818333300000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>237.5</v>
       </c>
@@ -4241,8 +5175,22 @@
         <f t="shared" si="3"/>
         <v>75.026666699999993</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="P67" s="1">
+        <v>237.5</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>237.5</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="4"/>
+        <v>75.026666699999993</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="5"/>
+        <v>75.026666699999993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68">
         <v>235</v>
       </c>
@@ -4262,23 +5210,37 @@
         <v>165.0083333</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J82" si="4">A68-G68</f>
+        <f t="shared" ref="J68:J82" si="6">A68-G68</f>
         <v>69.781666699999988</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K82" si="5">B68-G68</f>
+        <f t="shared" ref="K68:K82" si="7">B68-G68</f>
         <v>0.48166669999969258</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M82" si="6">D68-G68</f>
+        <f t="shared" ref="M68:M82" si="8">D68-G68</f>
         <v>-0.7516666333339117</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N82" si="7">E68-G68</f>
+        <f t="shared" ref="N68:N82" si="9">E68-G68</f>
         <v>69.781666699999988</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="P68" s="1">
+        <v>235</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>235</v>
+      </c>
+      <c r="S68">
+        <f t="shared" ref="S68:S82" si="10">P68-G68</f>
+        <v>69.781666699999988</v>
+      </c>
+      <c r="T68">
+        <f t="shared" ref="T68:T82" si="11">Q68-G68</f>
+        <v>69.781666699999988</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69">
         <v>232.5</v>
       </c>
@@ -4298,23 +5260,37 @@
         <v>167.44</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>64.806666699999994</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.42888892222191544</v>
       </c>
       <c r="M69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.52190472857199666</v>
       </c>
       <c r="N69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>64.806666699999994</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="P69" s="1">
+        <v>232.5</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>232.5</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="10"/>
+        <v>64.806666699999994</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="11"/>
+        <v>64.806666699999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70">
         <v>230</v>
       </c>
@@ -4334,23 +5310,37 @@
         <v>169.98833329999999</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>59.921666700000003</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.64388892222166305</v>
       </c>
       <c r="M70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.32119044285758491</v>
       </c>
       <c r="N70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>59.921666700000003</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="P70" s="1">
+        <v>230</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>230</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="10"/>
+        <v>59.921666700000003</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="11"/>
+        <v>59.921666700000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71">
         <v>227.5</v>
       </c>
@@ -4370,23 +5360,37 @@
         <v>172.90166669999999</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>55.128333300000008</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.75055552222181632</v>
       </c>
       <c r="M71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.3812857190819159E-4</v>
       </c>
       <c r="N71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>55.128333300000008</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="P71" s="1">
+        <v>227.5</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>227.5</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="10"/>
+        <v>55.128333300000008</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="11"/>
+        <v>55.128333300000008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72">
         <v>225</v>
       </c>
@@ -4406,23 +5410,37 @@
         <v>175.34</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50.22</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.77555555555528599</v>
       </c>
       <c r="M72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.6666666666388892E-2</v>
       </c>
       <c r="N72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>50.22</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="P72" s="1">
+        <v>225</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>225</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="10"/>
+        <v>50.22</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="11"/>
+        <v>50.22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73">
         <v>222.5</v>
       </c>
@@ -4442,23 +5460,37 @@
         <v>177.89500000000001</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45.314999999999998</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.62611111111073114</v>
       </c>
       <c r="M73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.26738095238050619</v>
       </c>
       <c r="N73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>45.314999999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="P73" s="1">
+        <v>222.5</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>222.5</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="10"/>
+        <v>45.314999999999998</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="11"/>
+        <v>45.314999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74">
         <v>220</v>
       </c>
@@ -4478,23 +5510,37 @@
         <v>180.07</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40.090000000000003</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.70111111111069135</v>
       </c>
       <c r="M74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11857142857098779</v>
       </c>
       <c r="N74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40.090000000000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="P74" s="1">
+        <v>220</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>220</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="10"/>
+        <v>40.090000000000003</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="11"/>
+        <v>40.090000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75">
         <v>217.5</v>
       </c>
@@ -4514,23 +5560,37 @@
         <v>182.60666670000001</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35.066666700000013</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.85555558888862038</v>
       </c>
       <c r="M75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3809557142612903E-2</v>
       </c>
       <c r="N75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35.066666700000013</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="P75" s="1">
+        <v>217.5</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>217.5</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="10"/>
+        <v>35.066666700000013</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="11"/>
+        <v>35.066666700000013</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76">
         <v>215</v>
       </c>
@@ -4550,23 +5610,37 @@
         <v>185.14500000000001</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30.025000000000006</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99166666666630476</v>
       </c>
       <c r="M76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.13690476190538448</v>
       </c>
       <c r="N76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30.025000000000006</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="P76" s="1">
+        <v>215</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>215</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="10"/>
+        <v>30.025000000000006</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="11"/>
+        <v>30.025000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77">
         <v>212.5</v>
       </c>
@@ -4586,23 +5660,37 @@
         <v>188.0766667</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.0433333</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.73222218888861335</v>
       </c>
       <c r="M77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.7615714231596939E-4</v>
       </c>
       <c r="N77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.0433333</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="P77" s="1">
+        <v>212.5</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>212.5</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="10"/>
+        <v>25.0433333</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="11"/>
+        <v>25.0433333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78">
         <v>210</v>
       </c>
@@ -4622,23 +5710,37 @@
         <v>190.5783333</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20.098333300000007</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.60944441111058723</v>
       </c>
       <c r="M78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-6.8333366667104656E-2</v>
       </c>
       <c r="N78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.098333300000007</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="P78" s="1">
+        <v>210</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>210</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="10"/>
+        <v>20.098333300000007</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="11"/>
+        <v>20.098333300000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79">
         <v>207.5</v>
       </c>
@@ -4658,23 +5760,37 @@
         <v>192.84666669999999</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15.246666699999992</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.69111114444399391</v>
       </c>
       <c r="M79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.17047622380911776</v>
       </c>
       <c r="N79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.246666699999992</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="P79" s="1">
+        <v>207.5</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>207.5</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="10"/>
+        <v>15.246666699999992</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="11"/>
+        <v>15.246666699999992</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80">
         <v>205</v>
       </c>
@@ -4694,23 +5810,37 @@
         <v>195.6166667</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.396666699999997</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.47444447777729692</v>
       </c>
       <c r="M80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.31571431904711744</v>
       </c>
       <c r="N80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.396666699999997</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="P80" s="1">
+        <v>205</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>205</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="10"/>
+        <v>10.396666699999997</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="11"/>
+        <v>10.396666699999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81">
         <v>202.5</v>
       </c>
@@ -4730,23 +5860,37 @@
         <v>197.67500000000001</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.2150000000000034</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12611111111081641</v>
       </c>
       <c r="M81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.18166666666641618</v>
       </c>
       <c r="N81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.2150000000000034</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="P81" s="1">
+        <v>202.5</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>202.5</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="10"/>
+        <v>5.2150000000000034</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="11"/>
+        <v>5.2150000000000034</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82">
         <v>200</v>
       </c>
@@ -4766,39 +5910,65 @@
         <v>200</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N82">
+      <c r="K82">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="M82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>200</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="J83" s="2">
         <f>SUM(J3:J82)</f>
         <v>7490.6730953544129</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" ref="K83:N83" si="8">SUM(K3:K82)</f>
+        <f t="shared" ref="K83:T83" si="12">SUM(K3:K82)</f>
         <v>-1.0094443281290406</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-26.298333217019838</v>
       </c>
       <c r="N83" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7043.1794445607611</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2">
+        <f t="shared" si="12"/>
+        <v>7531.1588095959978</v>
+      </c>
+      <c r="T83" s="2">
+        <f t="shared" si="12"/>
+        <v>7050.9238889519993</v>
       </c>
     </row>
   </sheetData>
